--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cx3cl1</t>
+  </si>
+  <si>
+    <t>Itgav</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Cx3cl1</t>
-  </si>
-  <si>
-    <t>Itgav</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.36956766666667</v>
+        <v>9.912502333333334</v>
       </c>
       <c r="H2">
-        <v>31.108703</v>
+        <v>29.737507</v>
       </c>
       <c r="I2">
-        <v>0.3064094944964822</v>
+        <v>0.306800202315277</v>
       </c>
       <c r="J2">
-        <v>0.3135816093320294</v>
+        <v>0.3105483022825659</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N2">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O2">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P2">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q2">
-        <v>110.7906869511925</v>
+        <v>137.7773260901469</v>
       </c>
       <c r="R2">
-        <v>997.1161825607321</v>
+        <v>1239.995934811322</v>
       </c>
       <c r="S2">
-        <v>0.01441744298805825</v>
+        <v>0.01489057099240291</v>
       </c>
       <c r="T2">
-        <v>0.01534272310371172</v>
+        <v>0.01552516015579702</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.36956766666667</v>
+        <v>9.912502333333334</v>
       </c>
       <c r="H3">
-        <v>31.108703</v>
+        <v>29.737507</v>
       </c>
       <c r="I3">
-        <v>0.3064094944964822</v>
+        <v>0.306800202315277</v>
       </c>
       <c r="J3">
-        <v>0.3135816093320294</v>
+        <v>0.3105483022825659</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P3">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q3">
-        <v>729.6271667932962</v>
+        <v>697.466975074654</v>
       </c>
       <c r="R3">
-        <v>6566.644501139665</v>
+        <v>6277.202775671885</v>
       </c>
       <c r="S3">
-        <v>0.09494803551868035</v>
+        <v>0.0753801935480324</v>
       </c>
       <c r="T3">
-        <v>0.101041593811823</v>
+        <v>0.07859265961024968</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.36956766666667</v>
+        <v>9.912502333333334</v>
       </c>
       <c r="H4">
-        <v>31.108703</v>
+        <v>29.737507</v>
       </c>
       <c r="I4">
-        <v>0.3064094944964822</v>
+        <v>0.306800202315277</v>
       </c>
       <c r="J4">
-        <v>0.3135816093320294</v>
+        <v>0.3105483022825659</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N4">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O4">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P4">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q4">
-        <v>612.7488972520524</v>
+        <v>812.9011706637184</v>
       </c>
       <c r="R4">
-        <v>5514.740075268473</v>
+        <v>7316.110535973466</v>
       </c>
       <c r="S4">
-        <v>0.07973840162232107</v>
+        <v>0.08785598425430023</v>
       </c>
       <c r="T4">
-        <v>0.08485583871128582</v>
+        <v>0.09160012916154031</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.36956766666667</v>
+        <v>9.912502333333334</v>
       </c>
       <c r="H5">
-        <v>31.108703</v>
+        <v>29.737507</v>
       </c>
       <c r="I5">
-        <v>0.3064094944964822</v>
+        <v>0.306800202315277</v>
       </c>
       <c r="J5">
-        <v>0.3135816093320294</v>
+        <v>0.3105483022825659</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N5">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O5">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P5">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q5">
-        <v>270.6289122155962</v>
+        <v>248.3096356315918</v>
       </c>
       <c r="R5">
-        <v>1623.773473293577</v>
+        <v>1489.857813789551</v>
       </c>
       <c r="S5">
-        <v>0.03521755320921028</v>
+        <v>0.02683658017176704</v>
       </c>
       <c r="T5">
-        <v>0.02498515942236068</v>
+        <v>0.01865351370846865</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.36956766666667</v>
+        <v>9.912502333333334</v>
       </c>
       <c r="H6">
-        <v>31.108703</v>
+        <v>29.737507</v>
       </c>
       <c r="I6">
-        <v>0.3064094944964822</v>
+        <v>0.306800202315277</v>
       </c>
       <c r="J6">
-        <v>0.3135816093320294</v>
+        <v>0.3105483022825659</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N6">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O6">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P6">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q6">
-        <v>630.8048309081397</v>
+        <v>942.261523385069</v>
       </c>
       <c r="R6">
-        <v>5677.243478173257</v>
+        <v>8480.353710465621</v>
       </c>
       <c r="S6">
-        <v>0.08208806115821221</v>
+        <v>0.1018368733487744</v>
       </c>
       <c r="T6">
-        <v>0.08735629428284822</v>
+        <v>0.1061768396465102</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>62.82820599999999</v>
       </c>
       <c r="I7">
-        <v>0.6188351484978608</v>
+        <v>0.648195099606228</v>
       </c>
       <c r="J7">
-        <v>0.6333201981749051</v>
+        <v>0.6561139341222959</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N7">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O7">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P7">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q7">
-        <v>223.7566800085182</v>
+        <v>291.0903804317196</v>
       </c>
       <c r="R7">
-        <v>2013.810120076664</v>
+        <v>2619.813423885476</v>
       </c>
       <c r="S7">
-        <v>0.02911796348587659</v>
+        <v>0.03146019811843389</v>
       </c>
       <c r="T7">
-        <v>0.03098669101572506</v>
+        <v>0.03280093252105521</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>62.82820599999999</v>
       </c>
       <c r="I8">
-        <v>0.6188351484978608</v>
+        <v>0.648195099606228</v>
       </c>
       <c r="J8">
-        <v>0.6333201981749051</v>
+        <v>0.6561139341222959</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P8">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q8">
         <v>1473.580108385926</v>
@@ -948,10 +948,10 @@
         <v>13262.22097547333</v>
       </c>
       <c r="S8">
-        <v>0.1917603165539549</v>
+        <v>0.159260234173485</v>
       </c>
       <c r="T8">
-        <v>0.2040670763605137</v>
+        <v>0.166047402967594</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>62.82820599999999</v>
       </c>
       <c r="I9">
-        <v>0.6188351484978608</v>
+        <v>0.648195099606228</v>
       </c>
       <c r="J9">
-        <v>0.6333201981749051</v>
+        <v>0.6561139341222959</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N9">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O9">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P9">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q9">
-        <v>1237.528737306238</v>
+        <v>1717.464823399663</v>
       </c>
       <c r="R9">
-        <v>11137.75863575614</v>
+        <v>15457.18341059697</v>
       </c>
       <c r="S9">
-        <v>0.161042417076595</v>
+        <v>0.1856185818489065</v>
       </c>
       <c r="T9">
-        <v>0.1713777689431616</v>
+        <v>0.1935290602735414</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>62.82820599999999</v>
       </c>
       <c r="I10">
-        <v>0.6188351484978608</v>
+        <v>0.648195099606228</v>
       </c>
       <c r="J10">
-        <v>0.6333201981749051</v>
+        <v>0.6561139341222959</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N10">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O10">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P10">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q10">
-        <v>546.5714544973923</v>
+        <v>524.6185882107263</v>
       </c>
       <c r="R10">
-        <v>3279.428726984354</v>
+        <v>3147.711529264358</v>
       </c>
       <c r="S10">
-        <v>0.07112658113211034</v>
+        <v>0.05669924474056601</v>
       </c>
       <c r="T10">
-        <v>0.0504608868820702</v>
+        <v>0.03941039179577131</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>62.82820599999999</v>
       </c>
       <c r="I11">
-        <v>0.6188351484978608</v>
+        <v>0.648195099606228</v>
       </c>
       <c r="J11">
-        <v>0.6333201981749051</v>
+        <v>0.6561139341222959</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N11">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O11">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P11">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q11">
-        <v>1273.995121625346</v>
+        <v>1990.772161805996</v>
       </c>
       <c r="R11">
-        <v>11465.95609462811</v>
+        <v>17916.94945625396</v>
       </c>
       <c r="S11">
-        <v>0.165787870249324</v>
+        <v>0.2151568407248365</v>
       </c>
       <c r="T11">
-        <v>0.1764277749734346</v>
+        <v>0.224326146564334</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2078093333333333</v>
+        <v>1.169852</v>
       </c>
       <c r="H12">
-        <v>0.623428</v>
+        <v>2.339704</v>
       </c>
       <c r="I12">
-        <v>0.006140540746264892</v>
+        <v>0.03620789364881174</v>
       </c>
       <c r="J12">
-        <v>0.006284272138978229</v>
+        <v>0.0244334908452053</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N12">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O12">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P12">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q12">
-        <v>2.220279527070222</v>
+        <v>16.26018083639734</v>
       </c>
       <c r="R12">
-        <v>19.982515743632</v>
+        <v>97.56108501838402</v>
       </c>
       <c r="S12">
-        <v>0.0002889300028728032</v>
+        <v>0.001757352853075868</v>
       </c>
       <c r="T12">
-        <v>0.0003074729016860905</v>
+        <v>0.001221497125403246</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2078093333333333</v>
+        <v>1.169852</v>
       </c>
       <c r="H13">
-        <v>0.623428</v>
+        <v>2.339704</v>
       </c>
       <c r="I13">
-        <v>0.006140540746264892</v>
+        <v>0.03620789364881174</v>
       </c>
       <c r="J13">
-        <v>0.006284272138978229</v>
+        <v>0.0244334908452053</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P13">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q13">
-        <v>14.62195339161556</v>
+        <v>82.31353782195335</v>
       </c>
       <c r="R13">
-        <v>131.59758052454</v>
+        <v>493.8812269317201</v>
       </c>
       <c r="S13">
-        <v>0.001902787907529923</v>
+        <v>0.008896206751549765</v>
       </c>
       <c r="T13">
-        <v>0.002024904694577502</v>
+        <v>0.00618355668014604</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2078093333333333</v>
+        <v>1.169852</v>
       </c>
       <c r="H14">
-        <v>0.623428</v>
+        <v>2.339704</v>
       </c>
       <c r="I14">
-        <v>0.006140540746264892</v>
+        <v>0.03620789364881174</v>
       </c>
       <c r="J14">
-        <v>0.006284272138978229</v>
+        <v>0.0244334908452053</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N14">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O14">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P14">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q14">
-        <v>12.27967683243022</v>
+        <v>95.93683091558002</v>
       </c>
       <c r="R14">
-        <v>110.517091491872</v>
+        <v>575.62098549348</v>
       </c>
       <c r="S14">
-        <v>0.001597982154595143</v>
+        <v>0.01036857247904422</v>
       </c>
       <c r="T14">
-        <v>0.001700537171739352</v>
+        <v>0.007206965553628033</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2078093333333333</v>
+        <v>1.169852</v>
       </c>
       <c r="H15">
-        <v>0.623428</v>
+        <v>2.339704</v>
       </c>
       <c r="I15">
-        <v>0.006140540746264892</v>
+        <v>0.03620789364881174</v>
       </c>
       <c r="J15">
-        <v>0.006284272138978229</v>
+        <v>0.0244334908452053</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N15">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O15">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P15">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q15">
-        <v>5.423486844975333</v>
+        <v>29.304963983318</v>
       </c>
       <c r="R15">
-        <v>32.540921069852</v>
+        <v>117.219855933272</v>
       </c>
       <c r="S15">
-        <v>0.0007057706250920055</v>
+        <v>0.003167194915206109</v>
       </c>
       <c r="T15">
-        <v>0.0005007102986056177</v>
+        <v>0.00146763145403409</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2078093333333333</v>
+        <v>1.169852</v>
       </c>
       <c r="H16">
-        <v>0.623428</v>
+        <v>2.339704</v>
       </c>
       <c r="I16">
-        <v>0.006140540746264892</v>
+        <v>0.03620789364881174</v>
       </c>
       <c r="J16">
-        <v>0.006284272138978229</v>
+        <v>0.0244334908452053</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N16">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O16">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P16">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q16">
-        <v>12.64152331016178</v>
+        <v>111.2036588327734</v>
       </c>
       <c r="R16">
-        <v>113.773709791456</v>
+        <v>667.2219529966402</v>
       </c>
       <c r="S16">
-        <v>0.001645070056175017</v>
+        <v>0.01201856664993577</v>
       </c>
       <c r="T16">
-        <v>0.001750647072369668</v>
+        <v>0.00835384003199389</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>2.3220755</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H17">
-        <v>4.644151</v>
+        <v>0.852656</v>
       </c>
       <c r="I17">
-        <v>0.06861481625939206</v>
+        <v>0.00879680442968319</v>
       </c>
       <c r="J17">
-        <v>0.04681392035408721</v>
+        <v>0.008904272749933054</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N17">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O17">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P17">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q17">
-        <v>24.80955311420734</v>
+        <v>3.950454345575112</v>
       </c>
       <c r="R17">
-        <v>148.857318685244</v>
+        <v>35.554089110176</v>
       </c>
       <c r="S17">
-        <v>0.003228523330132105</v>
+        <v>0.0004269535674291156</v>
       </c>
       <c r="T17">
-        <v>0.002290481954352963</v>
+        <v>0.0004451489816480333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>2.3220755</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H18">
-        <v>4.644151</v>
+        <v>0.852656</v>
       </c>
       <c r="I18">
-        <v>0.06861481625939206</v>
+        <v>0.00879680442968319</v>
       </c>
       <c r="J18">
-        <v>0.04681392035408721</v>
+        <v>0.008904272749933054</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P18">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q18">
-        <v>163.3866929275508</v>
+        <v>19.99829377423111</v>
       </c>
       <c r="R18">
-        <v>980.320157565305</v>
+        <v>179.98464396808</v>
       </c>
       <c r="S18">
-        <v>0.02126188035396951</v>
+        <v>0.002161357181349839</v>
       </c>
       <c r="T18">
-        <v>0.01508428104324284</v>
+        <v>0.002253467406418334</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,25 +1585,25 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>2.3220755</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H19">
-        <v>4.644151</v>
+        <v>0.852656</v>
       </c>
       <c r="I19">
-        <v>0.06861481625939206</v>
+        <v>0.00879680442968319</v>
       </c>
       <c r="J19">
-        <v>0.04681392035408721</v>
+        <v>0.008904272749933054</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N19">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O19">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P19">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q19">
-        <v>137.2139367521373</v>
+        <v>23.30810920274667</v>
       </c>
       <c r="R19">
-        <v>823.283620512824</v>
+        <v>209.77298282472</v>
       </c>
       <c r="S19">
-        <v>0.01785596032239133</v>
+        <v>0.002519072365761347</v>
       </c>
       <c r="T19">
-        <v>0.01266794466509442</v>
+        <v>0.00262642728357701</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>2.3220755</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H20">
-        <v>4.644151</v>
+        <v>0.852656</v>
       </c>
       <c r="I20">
-        <v>0.06861481625939206</v>
+        <v>0.00879680442968319</v>
       </c>
       <c r="J20">
-        <v>0.04681392035408721</v>
+        <v>0.008904272749933054</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N20">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O20">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P20">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q20">
-        <v>60.60240762665225</v>
+        <v>7.119719238034667</v>
       </c>
       <c r="R20">
-        <v>242.409630506609</v>
+        <v>42.718315428208</v>
       </c>
       <c r="S20">
-        <v>0.007886328543853491</v>
+        <v>0.0007694784604149299</v>
       </c>
       <c r="T20">
-        <v>0.003729980421122532</v>
+        <v>0.000534847470052148</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,25 +1709,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>2.3220755</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H21">
-        <v>4.644151</v>
+        <v>0.852656</v>
       </c>
       <c r="I21">
-        <v>0.06861481625939206</v>
+        <v>0.00879680442968319</v>
       </c>
       <c r="J21">
-        <v>0.04681392035408721</v>
+        <v>0.008904272749933054</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N21">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O21">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P21">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q21">
-        <v>141.2572336879587</v>
+        <v>27.01722580455111</v>
       </c>
       <c r="R21">
-        <v>847.5434021277521</v>
+        <v>243.15503224096</v>
       </c>
       <c r="S21">
-        <v>0.01838212370904562</v>
+        <v>0.002919942854727958</v>
       </c>
       <c r="T21">
-        <v>0.01304123227027446</v>
+        <v>0.00304438160823753</v>
       </c>
     </row>
   </sheetData>
